--- a/src/org/keyword/data/关键字驱动测试用例.xlsx
+++ b/src/org/keyword/data/关键字驱动测试用例.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>测试用例序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,14 +361,6 @@
   </si>
   <si>
     <t>测试步骤执行成功</t>
-  </si>
-  <si>
-    <t>ie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试步骤执行失败</t>
@@ -753,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -808,7 +800,7 @@
         <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>92</v>
@@ -946,7 +938,7 @@
         <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row ht="28.8" r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,7 +981,7 @@
         <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1167,7 +1159,7 @@
         <v>82</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
         <v>92</v>
@@ -1305,7 +1297,7 @@
         <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
